--- a/Excelsheet/erailDataSheet.xlsx
+++ b/Excelsheet/erailDataSheet.xlsx
@@ -13,7 +13,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>DropdownValues</t>
   </si>
@@ -135,6 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,9 +504,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.44140625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -520,127 +521,127 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>24</v>
       </c>
     </row>

--- a/Excelsheet/erailDataSheet.xlsx
+++ b/Excelsheet/erailDataSheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
   <si>
     <t>DropdownValues</t>
   </si>

--- a/Excelsheet/erailDataSheet.xlsx
+++ b/Excelsheet/erailDataSheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="34">
   <si>
     <t>DropdownValues</t>
   </si>
